--- a/aio6.xlsx
+++ b/aio6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="UpZgwy0jmVKyyRhbsRIToXgyv1VfzxHoarmLuFrhAaTHBhe1PX3OIi0TvkKD96LsDQWSHBI04xlAoEAFwL6EZg==" workbookSaltValue="iiYUc/kLvfJBu7yphj8Xqw==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="f97fU9BtKFG9CV6skCVoUg6A8HdjsSeTpi9fsTnrvlsU7mX58OspAutAv5b9U4bMwfLeT89l0QlAIjIDVfk6Uw==" workbookSaltValue="PCfsE46c5mFH2NOpmB/cnA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11235" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="485">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1211,10 +1211,6 @@
   </si>
   <si>
     <t>대화의 빈칸에 알맞지 않은 것은?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_____________</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2495,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+      <selection activeCell="A92" sqref="A92:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4624,19 +4620,19 @@
         <v>288</v>
       </c>
       <c r="E62" t="s">
+        <v>417</v>
+      </c>
+      <c r="F62" t="s">
         <v>418</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>419</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>420</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>421</v>
-      </c>
-      <c r="I62" t="s">
-        <v>422</v>
       </c>
       <c r="J62" s="3">
         <v>3</v>
@@ -4659,19 +4655,19 @@
         <v>289</v>
       </c>
       <c r="E63" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F63" t="s">
         <v>291</v>
       </c>
       <c r="G63" t="s">
+        <v>423</v>
+      </c>
+      <c r="H63" t="s">
         <v>424</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>425</v>
-      </c>
-      <c r="I63" t="s">
-        <v>426</v>
       </c>
       <c r="J63" s="3">
         <v>2</v>
@@ -4691,22 +4687,22 @@
         <v>292</v>
       </c>
       <c r="D64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E64" t="s">
         <v>294</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>295</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>296</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>297</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>298</v>
-      </c>
-      <c r="I64" t="s">
-        <v>299</v>
       </c>
       <c r="J64" s="3">
         <v>4</v>
@@ -4723,22 +4719,22 @@
         <v>102</v>
       </c>
       <c r="D65" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" t="s">
         <v>300</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>301</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>302</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>303</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>304</v>
-      </c>
-      <c r="I65" t="s">
-        <v>305</v>
       </c>
       <c r="J65" s="3">
         <v>4</v>
@@ -4752,31 +4748,31 @@
         <v>286</v>
       </c>
       <c r="C66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" t="s">
         <v>306</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>426</v>
+      </c>
+      <c r="F66" t="s">
+        <v>427</v>
+      </c>
+      <c r="G66" t="s">
+        <v>428</v>
+      </c>
+      <c r="H66" t="s">
+        <v>429</v>
+      </c>
+      <c r="I66" t="s">
         <v>307</v>
-      </c>
-      <c r="E66" t="s">
-        <v>427</v>
-      </c>
-      <c r="F66" t="s">
-        <v>428</v>
-      </c>
-      <c r="G66" t="s">
-        <v>429</v>
-      </c>
-      <c r="H66" t="s">
-        <v>430</v>
-      </c>
-      <c r="I66" t="s">
-        <v>308</v>
       </c>
       <c r="J66" s="3">
         <v>5</v>
       </c>
       <c r="K66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4787,31 +4783,31 @@
         <v>286</v>
       </c>
       <c r="C67" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" t="s">
         <v>309</v>
       </c>
-      <c r="D67" t="s">
-        <v>310</v>
-      </c>
       <c r="E67" t="s">
+        <v>430</v>
+      </c>
+      <c r="F67" t="s">
         <v>431</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>432</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>433</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>434</v>
-      </c>
-      <c r="I67" t="s">
-        <v>435</v>
       </c>
       <c r="J67" s="3">
         <v>4</v>
       </c>
       <c r="K67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4822,25 +4818,25 @@
         <v>286</v>
       </c>
       <c r="C68" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" t="s">
         <v>312</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>313</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>314</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>316</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>317</v>
-      </c>
-      <c r="I68" t="s">
-        <v>318</v>
       </c>
       <c r="J68" s="2">
         <v>2</v>
@@ -4854,25 +4850,25 @@
         <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D69" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" t="s">
         <v>319</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>320</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>321</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>322</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>323</v>
-      </c>
-      <c r="I69" t="s">
-        <v>324</v>
       </c>
       <c r="J69" s="2">
         <v>4</v>
@@ -4886,31 +4882,31 @@
         <v>286</v>
       </c>
       <c r="C70" t="s">
+        <v>324</v>
+      </c>
+      <c r="D70" t="s">
         <v>325</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>435</v>
+      </c>
+      <c r="F70" t="s">
+        <v>436</v>
+      </c>
+      <c r="G70" t="s">
         <v>326</v>
       </c>
-      <c r="E70" t="s">
-        <v>436</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>437</v>
       </c>
-      <c r="G70" t="s">
-        <v>327</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>438</v>
-      </c>
-      <c r="I70" t="s">
-        <v>439</v>
       </c>
       <c r="J70" s="3">
         <v>3</v>
       </c>
       <c r="K70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4921,31 +4917,31 @@
         <v>286</v>
       </c>
       <c r="C71" t="s">
+        <v>327</v>
+      </c>
+      <c r="D71" t="s">
         <v>328</v>
       </c>
-      <c r="D71" t="s">
-        <v>329</v>
-      </c>
       <c r="E71" t="s">
+        <v>439</v>
+      </c>
+      <c r="F71" t="s">
         <v>440</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>441</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>442</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>443</v>
-      </c>
-      <c r="I71" t="s">
-        <v>444</v>
       </c>
       <c r="J71" s="3">
         <v>3</v>
       </c>
       <c r="K71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4956,25 +4952,25 @@
         <v>286</v>
       </c>
       <c r="C72" t="s">
+        <v>330</v>
+      </c>
+      <c r="D72" t="s">
         <v>331</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>332</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>333</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>334</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>335</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>336</v>
-      </c>
-      <c r="I72" t="s">
-        <v>337</v>
       </c>
       <c r="J72" s="2">
         <v>3</v>
@@ -4991,22 +4987,22 @@
         <v>102</v>
       </c>
       <c r="D73" t="s">
+        <v>337</v>
+      </c>
+      <c r="E73" t="s">
         <v>338</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>339</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>340</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>341</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>342</v>
-      </c>
-      <c r="I73" t="s">
-        <v>343</v>
       </c>
       <c r="J73" s="2">
         <v>2</v>
@@ -5020,31 +5016,31 @@
         <v>286</v>
       </c>
       <c r="C74" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" t="s">
         <v>344</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>345</v>
       </c>
-      <c r="E74" t="s">
-        <v>346</v>
-      </c>
       <c r="F74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G74" t="s">
+        <v>458</v>
+      </c>
+      <c r="H74" t="s">
         <v>459</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>460</v>
-      </c>
-      <c r="I74" t="s">
-        <v>461</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -5055,25 +5051,25 @@
         <v>286</v>
       </c>
       <c r="C75" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" t="s">
         <v>347</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>348</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>349</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>350</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>351</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>352</v>
-      </c>
-      <c r="I75" t="s">
-        <v>353</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -5087,25 +5083,25 @@
         <v>286</v>
       </c>
       <c r="C76" t="s">
+        <v>353</v>
+      </c>
+      <c r="D76" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D76" t="s">
-        <v>361</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="J76" s="2">
         <v>4</v>
@@ -5119,31 +5115,31 @@
         <v>286</v>
       </c>
       <c r="C77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E77" t="s">
+        <v>452</v>
+      </c>
+      <c r="F77" t="s">
+        <v>451</v>
+      </c>
+      <c r="G77" t="s">
+        <v>361</v>
+      </c>
+      <c r="H77" t="s">
         <v>453</v>
       </c>
-      <c r="F77" t="s">
-        <v>452</v>
-      </c>
-      <c r="G77" t="s">
-        <v>362</v>
-      </c>
-      <c r="H77" t="s">
-        <v>454</v>
-      </c>
       <c r="I77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J77" s="2">
         <v>3</v>
       </c>
       <c r="K77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -5157,28 +5153,28 @@
         <v>287</v>
       </c>
       <c r="D78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E78" t="s">
+        <v>461</v>
+      </c>
+      <c r="F78" t="s">
+        <v>362</v>
+      </c>
+      <c r="G78" t="s">
         <v>462</v>
       </c>
-      <c r="F78" t="s">
-        <v>363</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>463</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>464</v>
-      </c>
-      <c r="I78" t="s">
-        <v>465</v>
       </c>
       <c r="J78" s="2">
         <v>2</v>
       </c>
       <c r="K78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -5189,31 +5185,31 @@
         <v>286</v>
       </c>
       <c r="C79" t="s">
+        <v>363</v>
+      </c>
+      <c r="D79" t="s">
         <v>364</v>
       </c>
-      <c r="D79" t="s">
-        <v>365</v>
-      </c>
       <c r="E79" t="s">
+        <v>465</v>
+      </c>
+      <c r="F79" t="s">
         <v>466</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>467</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
+        <v>449</v>
+      </c>
+      <c r="I79" t="s">
         <v>468</v>
-      </c>
-      <c r="H79" t="s">
-        <v>450</v>
-      </c>
-      <c r="I79" t="s">
-        <v>469</v>
       </c>
       <c r="J79" s="2">
         <v>4</v>
       </c>
       <c r="K79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -5227,22 +5223,22 @@
         <v>292</v>
       </c>
       <c r="D80" t="s">
+        <v>365</v>
+      </c>
+      <c r="E80" t="s">
         <v>366</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>367</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>368</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>369</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>370</v>
-      </c>
-      <c r="I80" t="s">
-        <v>371</v>
       </c>
       <c r="J80" s="2">
         <v>5</v>
@@ -5256,25 +5252,25 @@
         <v>286</v>
       </c>
       <c r="C81" t="s">
+        <v>371</v>
+      </c>
+      <c r="D81" t="s">
+        <v>377</v>
+      </c>
+      <c r="E81" t="s">
         <v>372</v>
       </c>
-      <c r="D81" t="s">
-        <v>378</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>373</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>374</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>375</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>376</v>
-      </c>
-      <c r="I81" t="s">
-        <v>377</v>
       </c>
       <c r="J81" s="2">
         <v>4</v>
@@ -5291,28 +5287,28 @@
         <v>287</v>
       </c>
       <c r="D82" t="s">
+        <v>378</v>
+      </c>
+      <c r="E82" t="s">
+        <v>469</v>
+      </c>
+      <c r="F82" t="s">
+        <v>470</v>
+      </c>
+      <c r="G82" t="s">
         <v>379</v>
       </c>
-      <c r="E82" t="s">
-        <v>470</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
         <v>471</v>
       </c>
-      <c r="G82" t="s">
-        <v>380</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>472</v>
-      </c>
-      <c r="I82" t="s">
-        <v>473</v>
       </c>
       <c r="J82" s="2">
         <v>3</v>
       </c>
       <c r="K82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -5323,31 +5319,31 @@
         <v>286</v>
       </c>
       <c r="C83" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" t="s">
         <v>383</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>473</v>
+      </c>
+      <c r="F83" t="s">
         <v>384</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>474</v>
       </c>
-      <c r="F83" t="s">
-        <v>385</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>475</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>476</v>
-      </c>
-      <c r="I83" t="s">
-        <v>477</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
       </c>
       <c r="K83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -5358,31 +5354,31 @@
         <v>286</v>
       </c>
       <c r="C84" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" t="s">
         <v>386</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
+        <v>477</v>
+      </c>
+      <c r="F84" t="s">
+        <v>478</v>
+      </c>
+      <c r="G84" t="s">
+        <v>479</v>
+      </c>
+      <c r="H84" t="s">
         <v>387</v>
       </c>
-      <c r="E84" t="s">
-        <v>478</v>
-      </c>
-      <c r="F84" t="s">
-        <v>479</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>480</v>
-      </c>
-      <c r="H84" t="s">
-        <v>388</v>
-      </c>
-      <c r="I84" t="s">
-        <v>481</v>
       </c>
       <c r="J84" s="2">
         <v>4</v>
       </c>
       <c r="K84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5393,31 +5389,31 @@
         <v>286</v>
       </c>
       <c r="C85" t="s">
+        <v>388</v>
+      </c>
+      <c r="D85" t="s">
         <v>389</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>390</v>
       </c>
-      <c r="E85" t="s">
-        <v>391</v>
-      </c>
       <c r="F85" t="s">
+        <v>481</v>
+      </c>
+      <c r="G85" t="s">
         <v>482</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>483</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>484</v>
-      </c>
-      <c r="I85" t="s">
-        <v>485</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5431,22 +5427,22 @@
         <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E86" t="s">
+        <v>399</v>
+      </c>
+      <c r="F86" t="s">
         <v>400</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>401</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>402</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>403</v>
-      </c>
-      <c r="I86" t="s">
-        <v>404</v>
       </c>
       <c r="J86" s="2">
         <v>5</v>
@@ -5463,28 +5459,28 @@
         <v>287</v>
       </c>
       <c r="D87" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F87" t="s">
+        <v>454</v>
+      </c>
+      <c r="G87" t="s">
         <v>455</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>456</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>457</v>
-      </c>
-      <c r="I87" t="s">
-        <v>458</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5498,22 +5494,22 @@
         <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E88" t="s">
+        <v>405</v>
+      </c>
+      <c r="F88" t="s">
         <v>406</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>407</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>408</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>409</v>
-      </c>
-      <c r="I88" t="s">
-        <v>410</v>
       </c>
       <c r="J88" s="2">
         <v>3</v>
@@ -5530,22 +5526,22 @@
         <v>102</v>
       </c>
       <c r="D89" t="s">
+        <v>393</v>
+      </c>
+      <c r="E89" t="s">
         <v>394</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>395</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>396</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>397</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>398</v>
-      </c>
-      <c r="I89" t="s">
-        <v>399</v>
       </c>
       <c r="J89" s="2">
         <v>5</v>
@@ -5559,31 +5555,31 @@
         <v>286</v>
       </c>
       <c r="C90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E90" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F90" t="s">
+        <v>445</v>
+      </c>
+      <c r="G90" t="s">
         <v>446</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
+        <v>444</v>
+      </c>
+      <c r="I90" t="s">
         <v>447</v>
-      </c>
-      <c r="H90" t="s">
-        <v>445</v>
-      </c>
-      <c r="I90" t="s">
-        <v>448</v>
       </c>
       <c r="J90" s="2">
         <v>4</v>
       </c>
       <c r="K90" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5594,33 +5590,28 @@
         <v>286</v>
       </c>
       <c r="C91" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D91" t="s">
+        <v>411</v>
+      </c>
+      <c r="E91" t="s">
         <v>412</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>413</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>414</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>415</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>416</v>
-      </c>
-      <c r="I91" t="s">
-        <v>417</v>
       </c>
       <c r="J91" s="2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5635,7 +5626,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
